--- a/biology/Zoologie/Odynerus_oligopunctatus/Odynerus_oligopunctatus.xlsx
+++ b/biology/Zoologie/Odynerus_oligopunctatus/Odynerus_oligopunctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odynerus oligopunctatus est une espèce fossile d'insectes hyménoptères de la famille des Vespidae, de la sous-famille des Eumeninae et du genre Odynerus (les guêpes maçonnes).
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Odynerus oligopunctatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype F147 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts à Nancy[1] et vient du gisement éocène de Céreste[1], dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier.
-Étymologie
-L'épithète spécifique oligopunctatus signifie en latin « oligo-ponctué » ou « peu ponctué ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Odynerus oligopunctatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype F147 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Fliche, enseignant la botanique à l'École nationale des eaux et forêts à Nancy et vient du gisement éocène de Céreste, dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes "supérieurs" du bassin d'Apt-Forcalquier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique oligopunctatus signifie en latin « oligo-ponctué » ou « peu ponctué ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte de grande taille, coloration brun foncé avec taches claires sur thorax et abdomen. Ailes transparentes. Tête noire en avant, brune sur vertex ; bord postérieur droit ; clypeus arrondi à l'avant; deux gros yeux latéraux, réniformes ; trois ocelles. Thorax ovale, portant de fines ponctuations, tronqué à l'avant ; mésonotum à bord postérieur crénelé ; scutellum rectangulaire, postscutellum arrondi à l'arrière ; tegulae grandes. Abdomen subpétiolé, de forme ovoïde ; trois  segments sont conservés ; le premier porte un bourrelet saillant au bord postérieur ; léger étranglement entre le premier} et le deuxième segment ; le bord postérieur du deuxième segment forme une bande mince creusée de gros points ; deux taches claires latérales sur le deuxième segment. Pattes conservées en partie. Ailes grandes, transparentes ; nervation bien visible, une nervure radiale, trois cellules cubitales dont la deuxième reçoit les deux nervures récurrentes. »[1].
-Dimensions
-La longueur conservée est de 11,5 mm, la longueur de l'aile antérieure de 10 mm, la longueur de la tête de 2 mm, la largeur de la tête 2 mm, la longueur du thorax 4,5 mm et la largeur 3,2 mm, la longueur de l'abdomen 4,5 mm et sa largeur 3,6 mm[1].
-Affinités
-« L'échantillon appartient à la famille des Eumenidae et se rapproche des g. Pterocheilus, Rhynchium et Odynerus ; il semble plus voisin du g. Odynerus par la structure de l'abdomen. Le g. Odynerus comprend plus de 2 000 espèces répandues dans le monde entier. En l'absence des antennes et des palpes labiaux, l'échantillon ne peut être déterminé avec plus de précision. »[1].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte de grande taille, coloration brun foncé avec taches claires sur thorax et abdomen. Ailes transparentes. Tête noire en avant, brune sur vertex ; bord postérieur droit ; clypeus arrondi à l'avant; deux gros yeux latéraux, réniformes ; trois ocelles. Thorax ovale, portant de fines ponctuations, tronqué à l'avant ; mésonotum à bord postérieur crénelé ; scutellum rectangulaire, postscutellum arrondi à l'arrière ; tegulae grandes. Abdomen subpétiolé, de forme ovoïde ; trois  segments sont conservés ; le premier porte un bourrelet saillant au bord postérieur ; léger étranglement entre le premier} et le deuxième segment ; le bord postérieur du deuxième segment forme une bande mince creusée de gros points ; deux taches claires latérales sur le deuxième segment. Pattes conservées en partie. Ailes grandes, transparentes ; nervation bien visible, une nervure radiale, trois cellules cubitales dont la deuxième reçoit les deux nervures récurrentes. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur conservée est de 11,5 mm, la longueur de l'aile antérieure de 10 mm, la longueur de la tête de 2 mm, la largeur de la tête 2 mm, la longueur du thorax 4,5 mm et la largeur 3,2 mm, la longueur de l'abdomen 4,5 mm et sa largeur 3,6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odynerus_oligopunctatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'échantillon appartient à la famille des Eumenidae et se rapproche des g. Pterocheilus, Rhynchium et Odynerus ; il semble plus voisin du g. Odynerus par la structure de l'abdomen. Le g. Odynerus comprend plus de 2 000 espèces répandues dans le monde entier. En l'absence des antennes et des palpes labiaux, l'échantillon ne peut être déterminé avec plus de précision. ».
 </t>
         </is>
       </c>
